--- a/data/trans_orig/P36B01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B01_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0A72AE-2F1E-47FC-B5B4-7220F50A3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF473C45-3ED4-4BF1-899E-73406053D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A409774-17B8-407A-960E-7E8BA659C8DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B58F46C6-1837-4637-924D-9369D87D0C54}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>94,17%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>94,42%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>93,02%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>6,98%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,16 +188,16 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>97,23%</t>
@@ -212,28 +206,28 @@
     <t>96,16%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>98,04%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>3,84%</t>
@@ -242,25 +236,25 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>94,63%</t>
+    <t>94,65%</t>
   </si>
   <si>
     <t>95,79%</t>
@@ -269,19 +263,19 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -290,7 +284,7 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>5,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ADB6AC-8A65-46FD-B6E4-388D46DC53CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0651F01-4BB1-44DD-B284-3481AAEF52B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -990,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>2761</v>
@@ -999,13 +993,13 @@
         <v>2136591</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>4626</v>
@@ -1014,13 +1008,13 @@
         <v>4164521</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,13 +1029,13 @@
         <v>119936</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -1050,13 +1044,13 @@
         <v>108891</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -1065,13 +1059,13 @@
         <v>228828</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1133,13 @@
         <v>654448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>971</v>
@@ -1154,13 +1148,13 @@
         <v>692153</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1632</v>
@@ -1169,13 +1163,13 @@
         <v>1346601</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,10 +1184,10 @@
         <v>16613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -1205,13 +1199,13 @@
         <v>21733</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -1220,13 +1214,13 @@
         <v>38346</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1288,13 @@
         <v>3191431</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>5082</v>
@@ -1309,28 +1303,28 @@
         <v>3618284</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>8256</v>
       </c>
       <c r="N13" s="7">
-        <v>6809715</v>
+        <v>6809714</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1339,13 @@
         <v>168061</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>264</v>
@@ -1360,13 +1354,13 @@
         <v>173956</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
@@ -1375,13 +1369,13 @@
         <v>342017</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,7 +1417,7 @@
         <v>8698</v>
       </c>
       <c r="N15" s="7">
-        <v>7151732</v>
+        <v>7151731</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
